--- a/DBCL/Nhóm9-Final Report/Nhom9-Test Case/Testcase .xlsx
+++ b/DBCL/Nhóm9-Final Report/Nhom9-Test Case/Testcase .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thangbook\Desktop\Đảm bảo chất lượng phần mềm\Final Report\Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thangbook\Desktop\PTIT\DBCL\Nhóm9-Final Report\Nhom9-Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1261,10 +1261,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1275,6 +1271,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1498,8 +1498,8 @@
   </sheetPr>
   <dimension ref="A1:Z1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:I141"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1602,11 +1602,11 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
@@ -1662,11 +1662,11 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
@@ -1692,11 +1692,11 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
@@ -1956,17 +1956,17 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -3823,14 +3823,14 @@
       <c r="A59" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="44"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="42"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -4968,7 +4968,7 @@
         <v>43962</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="I85" s="14"/>
       <c r="J85" s="5"/>
@@ -5592,17 +5592,17 @@
       <c r="Z100" s="5"/>
     </row>
     <row r="101" spans="1:26" ht="34.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="39" t="s">
+      <c r="A101" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="B101" s="40"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="40"/>
-      <c r="F101" s="40"/>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="41"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="39"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
@@ -5688,7 +5688,7 @@
         <v>43962</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="I103" s="14"/>
       <c r="J103" s="5"/>
@@ -6408,17 +6408,17 @@
       <c r="Z120" s="5"/>
     </row>
     <row r="121" spans="1:26" ht="23.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="42" t="s">
+      <c r="A121" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="43"/>
-      <c r="E121" s="43"/>
-      <c r="F121" s="43"/>
-      <c r="G121" s="43"/>
-      <c r="H121" s="43"/>
-      <c r="I121" s="44"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="42"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
@@ -6718,17 +6718,17 @@
       <c r="Z128" s="5"/>
     </row>
     <row r="129" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="39" t="s">
+      <c r="A129" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="B129" s="40"/>
-      <c r="C129" s="40"/>
-      <c r="D129" s="40"/>
-      <c r="E129" s="40"/>
-      <c r="F129" s="40"/>
-      <c r="G129" s="40"/>
-      <c r="H129" s="40"/>
-      <c r="I129" s="41"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="38"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="39"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
@@ -7188,17 +7188,17 @@
       <c r="Z140" s="5"/>
     </row>
     <row r="141" spans="1:26" ht="26.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="42" t="s">
+      <c r="A141" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="B141" s="43"/>
-      <c r="C141" s="43"/>
-      <c r="D141" s="43"/>
-      <c r="E141" s="43"/>
-      <c r="F141" s="43"/>
-      <c r="G141" s="43"/>
-      <c r="H141" s="43"/>
-      <c r="I141" s="44"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="41"/>
+      <c r="E141" s="41"/>
+      <c r="F141" s="41"/>
+      <c r="G141" s="41"/>
+      <c r="H141" s="41"/>
+      <c r="I141" s="42"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
@@ -7502,7 +7502,7 @@
         <v>43962</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="I148" s="14"/>
       <c r="J148" s="5"/>
@@ -7544,7 +7544,7 @@
         <v>43962</v>
       </c>
       <c r="H149" s="14" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="I149" s="14"/>
       <c r="J149" s="5"/>
@@ -7586,7 +7586,7 @@
         <v>43962</v>
       </c>
       <c r="H150" s="14" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="I150" s="14"/>
       <c r="J150" s="5"/>
@@ -32323,6 +32323,6 @@
     <hyperlink ref="D32" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>